--- a/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Val_A</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Formula 2</t>
+  </si>
+  <si>
+    <t>Formula 3</t>
   </si>
   <si>
     <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_DifferentName_v0.1\workspace\folder_2\2_test_file.csv</t>
@@ -391,21 +394,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -417,10 +423,14 @@
         <f>file_0!ZZ2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>file_0!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>file_1!ZZ1</f>
@@ -430,10 +440,14 @@
         <f>file_1!ZZ2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f>file_1!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>file_2!ZZ1</f>
@@ -443,10 +457,14 @@
         <f>file_2!ZZ2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f>file_2!ZZ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f>file_3!ZZ1</f>
@@ -454,6 +472,10 @@
       </c>
       <c r="C5">
         <f>file_3!ZZ2</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>file_3!ZZ3</f>
         <v>0</v>
       </c>
     </row>
@@ -526,7 +548,7 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C3</f>
+        <f>C8</f>
         <v>0</v>
       </c>
     </row>
@@ -554,6 +576,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>C9+C8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -3979,7 +4005,7 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C3</f>
+        <f>C8</f>
         <v>0</v>
       </c>
     </row>
@@ -4007,6 +4033,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>C9+C8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -7432,7 +7462,7 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C3</f>
+        <f>C8</f>
         <v>0</v>
       </c>
     </row>
@@ -7460,6 +7490,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>C9+C8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">
@@ -10885,7 +10919,7 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C3</f>
+        <f>C8</f>
         <v>0</v>
       </c>
     </row>
@@ -10913,6 +10947,10 @@
       </c>
       <c r="H3">
         <v>4.16</v>
+      </c>
+      <c r="ZZ3">
+        <f>C9+C8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:702">

--- a/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Val_A</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Formula 2</t>
-  </si>
-  <si>
-    <t>Formula 3</t>
   </si>
   <si>
     <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_DifferentName_v0.1\workspace\folder_2\2_test_file.csv</t>
@@ -394,24 +391,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -423,14 +417,10 @@
         <f>file_0!ZZ2</f>
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>file_0!ZZ3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <f>file_1!ZZ1</f>
@@ -440,14 +430,10 @@
         <f>file_1!ZZ2</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>file_1!ZZ3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <f>file_2!ZZ1</f>
@@ -457,14 +443,10 @@
         <f>file_2!ZZ2</f>
         <v>0</v>
       </c>
-      <c r="D4">
-        <f>file_2!ZZ3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <f>file_3!ZZ1</f>
@@ -472,10 +454,6 @@
       </c>
       <c r="C5">
         <f>file_3!ZZ2</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>file_3!ZZ3</f>
         <v>0</v>
       </c>
     </row>
@@ -577,10 +555,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9+C8</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -4034,10 +4008,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9+C8</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -7491,10 +7461,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9+C8</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">
@@ -10948,10 +10914,6 @@
       <c r="H3">
         <v>4.16</v>
       </c>
-      <c r="ZZ3">
-        <f>C9+C8</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:702">
       <c r="A4">

--- a/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_DifferentName_v0.1\workspace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="file_0" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="file_0" sheetId="2" r:id="rId2"/>
     <sheet name="file_1" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="file_2" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="file_3" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Val_A</t>
   </si>
@@ -53,6 +58,9 @@
     <t>Formula 2</t>
   </si>
   <si>
+    <t>Formula 3</t>
+  </si>
+  <si>
     <t>C:\Users\HP\Documents\GitHub\Csv_file_task_automation_tools\ApplyFormulasToGroupOfFiles_DifferentName_v0.1\workspace\folder_2\2_test_file.csv</t>
   </si>
   <si>
@@ -65,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +111,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -149,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,71 +408,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="142.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <f>file_0!ZZ1</f>
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="C2">
         <f>file_0!ZZ2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3.77</v>
+      </c>
+      <c r="D2">
+        <f>file_0!ZZ3</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>file_1!ZZ1</f>
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="C3">
         <f>file_1!ZZ2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3.77</v>
+      </c>
+      <c r="D3">
+        <f>file_1!ZZ3</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>file_2!ZZ1</f>
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="C4">
         <f>file_2!ZZ2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3.77</v>
+      </c>
+      <c r="D4">
+        <f>file_2!ZZ3</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f>file_3!ZZ1</f>
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="C5">
         <f>file_3!ZZ2</f>
-        <v>0</v>
+        <v>3.77</v>
+      </c>
+      <c r="D5">
+        <f>file_3!ZZ3</f>
+        <v>9.42</v>
       </c>
     </row>
   </sheetData>
@@ -463,14 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ZZ132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:702">
+    <row r="1" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,16 +538,16 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:702">
+        <f>C8</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3600</v>
       </c>
       <c r="B2">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C2">
         <v>15.38</v>
@@ -517,7 +559,7 @@
         <v>274.38</v>
       </c>
       <c r="F2">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G2">
         <v>19.54</v>
@@ -526,11 +568,11 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:702">
+        <f>C9</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -541,22 +583,26 @@
         <v>15.08</v>
       </c>
       <c r="D3">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="E3">
-        <v>274.84</v>
+        <v>274.83999999999997</v>
       </c>
       <c r="F3">
         <v>4.17</v>
       </c>
       <c r="G3">
-        <v>19.19</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="H3">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:702">
+      <c r="ZZ3">
+        <f>C8+C9</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3600</v>
       </c>
@@ -567,7 +613,7 @@
         <v>13.2</v>
       </c>
       <c r="D4">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E4">
         <v>283.75</v>
@@ -582,7 +628,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:702">
+    <row r="5" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3600</v>
       </c>
@@ -608,7 +654,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="6" spans="1:702">
+    <row r="6" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3600</v>
       </c>
@@ -634,7 +680,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="7" spans="1:702">
+    <row r="7" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3600</v>
       </c>
@@ -651,7 +697,7 @@
         <v>341.02</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G7">
         <v>11.9</v>
@@ -660,7 +706,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="8" spans="1:702">
+    <row r="8" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3600</v>
       </c>
@@ -677,7 +723,7 @@
         <v>387.61</v>
       </c>
       <c r="F8">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G8">
         <v>10.14</v>
@@ -686,7 +732,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:702">
+    <row r="9" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3600</v>
       </c>
@@ -712,7 +758,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="10" spans="1:702">
+    <row r="10" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3600</v>
       </c>
@@ -738,7 +784,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="11" spans="1:702">
+    <row r="11" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3400</v>
       </c>
@@ -764,7 +810,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="12" spans="1:702">
+    <row r="12" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3400</v>
       </c>
@@ -778,7 +824,7 @@
         <v>86.8</v>
       </c>
       <c r="E12">
-        <v>270.29</v>
+        <v>270.29000000000002</v>
       </c>
       <c r="F12">
         <v>3.83</v>
@@ -790,7 +836,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="13" spans="1:702">
+    <row r="13" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3400</v>
       </c>
@@ -801,7 +847,7 @@
         <v>12.46</v>
       </c>
       <c r="D13">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E13">
         <v>279.08</v>
@@ -816,7 +862,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="14" spans="1:702">
+    <row r="14" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3400</v>
       </c>
@@ -830,7 +876,7 @@
         <v>58.9</v>
       </c>
       <c r="E14">
-        <v>290.97</v>
+        <v>290.97000000000003</v>
       </c>
       <c r="F14">
         <v>3.1</v>
@@ -842,7 +888,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="15" spans="1:702">
+    <row r="15" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3400</v>
       </c>
@@ -868,7 +914,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="16" spans="1:702">
+    <row r="16" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3400</v>
       </c>
@@ -894,7 +940,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3400</v>
       </c>
@@ -905,7 +951,7 @@
         <v>5.34</v>
       </c>
       <c r="D17">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E17">
         <v>378.25</v>
@@ -920,7 +966,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3400</v>
       </c>
@@ -940,13 +986,13 @@
         <v>1.7</v>
       </c>
       <c r="G18">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H18">
         <v>1.68</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3400</v>
       </c>
@@ -972,7 +1018,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -998,7 +1044,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3200</v>
       </c>
@@ -1009,22 +1055,22 @@
         <v>15.01</v>
       </c>
       <c r="D21">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E21">
-        <v>259.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="F21">
         <v>3.94</v>
       </c>
       <c r="G21">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="H21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3200</v>
       </c>
@@ -1044,13 +1090,13 @@
         <v>3.54</v>
       </c>
       <c r="G22">
-        <v>18.51</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="H22">
         <v>3.56</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3200</v>
       </c>
@@ -1061,7 +1107,7 @@
         <v>11.73</v>
       </c>
       <c r="D23">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E23">
         <v>273.99</v>
@@ -1076,7 +1122,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3200</v>
       </c>
@@ -1084,13 +1130,13 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D24">
         <v>57.3</v>
       </c>
       <c r="E24">
-        <v>285.21</v>
+        <v>285.20999999999998</v>
       </c>
       <c r="F24">
         <v>2.85</v>
@@ -1102,7 +1148,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3200</v>
       </c>
@@ -1110,7 +1156,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D25">
         <v>48.4</v>
@@ -1128,7 +1174,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3200</v>
       </c>
@@ -1142,10 +1188,10 @@
         <v>42.9</v>
       </c>
       <c r="E26">
-        <v>323.65</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="F26">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G26">
         <v>11.3</v>
@@ -1154,7 +1200,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3200</v>
       </c>
@@ -1162,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="D27">
         <v>39.1</v>
@@ -1180,7 +1226,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3200</v>
       </c>
@@ -1206,7 +1252,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3200</v>
       </c>
@@ -1232,7 +1278,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -1258,7 +1304,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -1278,13 +1324,13 @@
         <v>3.61</v>
       </c>
       <c r="G31">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H31">
         <v>3.59</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -1295,10 +1341,10 @@
         <v>12.57</v>
       </c>
       <c r="D32">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E32">
-        <v>258.15</v>
+        <v>258.14999999999998</v>
       </c>
       <c r="F32">
         <v>3.26</v>
@@ -1310,7 +1356,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3000</v>
       </c>
@@ -1336,7 +1382,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -1362,7 +1408,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -1388,7 +1434,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3000</v>
       </c>
@@ -1402,7 +1448,7 @@
         <v>41.1</v>
       </c>
       <c r="E36">
-        <v>316.34</v>
+        <v>316.33999999999997</v>
       </c>
       <c r="F36">
         <v>1.98</v>
@@ -1414,7 +1460,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3000</v>
       </c>
@@ -1425,7 +1471,7 @@
         <v>4.71</v>
       </c>
       <c r="D37">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E37">
         <v>351.17</v>
@@ -1440,7 +1486,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3000</v>
       </c>
@@ -1466,7 +1512,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -1492,7 +1538,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2800</v>
       </c>
@@ -1518,7 +1564,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2800</v>
       </c>
@@ -1529,7 +1575,7 @@
         <v>14.52</v>
       </c>
       <c r="D41">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E41">
         <v>248.87</v>
@@ -1544,7 +1590,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2800</v>
       </c>
@@ -1555,7 +1601,7 @@
         <v>13.18</v>
       </c>
       <c r="D42">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E42">
         <v>252.43</v>
@@ -1564,13 +1610,13 @@
         <v>3.34</v>
       </c>
       <c r="G42">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="H42">
         <v>3.33</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2800</v>
       </c>
@@ -1596,7 +1642,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2800</v>
       </c>
@@ -1616,13 +1662,13 @@
         <v>2.71</v>
       </c>
       <c r="G44">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="H44">
         <v>2.71</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2800</v>
       </c>
@@ -1630,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D45">
         <v>49.2</v>
@@ -1648,7 +1694,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2800</v>
       </c>
@@ -1671,10 +1717,10 @@
         <v>12.35</v>
       </c>
       <c r="H46">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2800</v>
       </c>
@@ -1685,7 +1731,7 @@
         <v>5.87</v>
       </c>
       <c r="D47">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E47">
         <v>304.07</v>
@@ -1700,7 +1746,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2800</v>
       </c>
@@ -1708,10 +1754,10 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D48">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E48">
         <v>342.77</v>
@@ -1726,7 +1772,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2800</v>
       </c>
@@ -1752,7 +1798,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2800</v>
       </c>
@@ -1778,7 +1824,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2600</v>
       </c>
@@ -1804,7 +1850,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2600</v>
       </c>
@@ -1830,7 +1876,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2600</v>
       </c>
@@ -1856,7 +1902,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2600</v>
       </c>
@@ -1876,13 +1922,13 @@
         <v>2.79</v>
       </c>
       <c r="G54">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="H54">
         <v>2.78</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2600</v>
       </c>
@@ -1890,7 +1936,7 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D55">
         <v>52</v>
@@ -1899,16 +1945,16 @@
         <v>259.56</v>
       </c>
       <c r="F55">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G55">
         <v>15.85</v>
       </c>
       <c r="H55">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2600</v>
       </c>
@@ -1934,7 +1980,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2600</v>
       </c>
@@ -1960,7 +2006,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2600</v>
       </c>
@@ -1971,10 +2017,10 @@
         <v>5.45</v>
       </c>
       <c r="D58">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E58">
-        <v>294.72</v>
+        <v>294.72000000000003</v>
       </c>
       <c r="F58">
         <v>1.58</v>
@@ -1986,7 +2032,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2600</v>
       </c>
@@ -2012,7 +2058,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2600</v>
       </c>
@@ -2023,22 +2069,22 @@
         <v>2.72</v>
       </c>
       <c r="D60">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E60">
         <v>402.51</v>
       </c>
       <c r="F60">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G60">
         <v>7.01</v>
       </c>
       <c r="H60">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2600</v>
       </c>
@@ -2064,7 +2110,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2400</v>
       </c>
@@ -2090,7 +2136,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2400</v>
       </c>
@@ -2101,7 +2147,7 @@
         <v>12.55</v>
       </c>
       <c r="D63">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E63">
         <v>240.39</v>
@@ -2116,7 +2162,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2400</v>
       </c>
@@ -2142,7 +2188,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2400</v>
       </c>
@@ -2150,7 +2196,7 @@
         <v>40</v>
       </c>
       <c r="C65">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D65">
         <v>55.1</v>
@@ -2165,10 +2211,10 @@
         <v>17.54</v>
       </c>
       <c r="H65">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2400</v>
       </c>
@@ -2176,7 +2222,7 @@
         <v>35</v>
       </c>
       <c r="C66">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D66">
         <v>46.1</v>
@@ -2194,7 +2240,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2400</v>
       </c>
@@ -2220,7 +2266,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2400</v>
       </c>
@@ -2246,7 +2292,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2400</v>
       </c>
@@ -2260,7 +2306,7 @@
         <v>31.2</v>
       </c>
       <c r="E69">
-        <v>286.84</v>
+        <v>286.83999999999997</v>
       </c>
       <c r="F69">
         <v>1.42</v>
@@ -2272,7 +2318,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2400</v>
       </c>
@@ -2298,7 +2344,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2400</v>
       </c>
@@ -2306,10 +2352,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D71">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E71">
         <v>383.05</v>
@@ -2324,7 +2370,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2400</v>
       </c>
@@ -2350,7 +2396,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2200</v>
       </c>
@@ -2376,7 +2422,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2200</v>
       </c>
@@ -2402,7 +2448,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2200</v>
       </c>
@@ -2425,10 +2471,10 @@
         <v>19.18</v>
       </c>
       <c r="H75">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2200</v>
       </c>
@@ -2436,7 +2482,7 @@
         <v>40</v>
       </c>
       <c r="C76">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D76">
         <v>55.7</v>
@@ -2454,7 +2500,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2200</v>
       </c>
@@ -2480,7 +2526,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2200</v>
       </c>
@@ -2506,7 +2552,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2200</v>
       </c>
@@ -2532,12 +2578,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2200</v>
       </c>
       <c r="B80">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C80">
         <v>4.62</v>
@@ -2546,7 +2592,7 @@
         <v>31.4</v>
       </c>
       <c r="E80">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F80">
         <v>1.29</v>
@@ -2558,7 +2604,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2200</v>
       </c>
@@ -2575,7 +2621,7 @@
         <v>313.19</v>
       </c>
       <c r="F81">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G81">
         <v>8.19</v>
@@ -2584,7 +2630,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2200</v>
       </c>
@@ -2592,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D82">
         <v>17.5</v>
@@ -2610,7 +2656,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2200</v>
       </c>
@@ -2618,13 +2664,13 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D83">
         <v>14.4</v>
       </c>
       <c r="E83">
-        <v>594.0700000000001</v>
+        <v>594.07000000000005</v>
       </c>
       <c r="F83">
         <v>0.71</v>
@@ -2636,7 +2682,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2000</v>
       </c>
@@ -2662,7 +2708,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2000</v>
       </c>
@@ -2673,7 +2719,7 @@
         <v>10.46</v>
       </c>
       <c r="D85">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E85">
         <v>243.98</v>
@@ -2685,10 +2731,10 @@
         <v>21.27</v>
       </c>
       <c r="H85">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2000</v>
       </c>
@@ -2711,10 +2757,10 @@
         <v>18.48</v>
       </c>
       <c r="H86">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2000</v>
       </c>
@@ -2722,7 +2768,7 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D87">
         <v>56.2</v>
@@ -2740,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2000</v>
       </c>
@@ -2766,7 +2812,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2000</v>
       </c>
@@ -2792,7 +2838,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2000</v>
       </c>
@@ -2803,7 +2849,7 @@
         <v>5.23</v>
       </c>
       <c r="D90">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E90">
         <v>258.18</v>
@@ -2818,7 +2864,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2000</v>
       </c>
@@ -2826,13 +2872,13 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D91">
         <v>30.1</v>
       </c>
       <c r="E91">
-        <v>274.15</v>
+        <v>274.14999999999998</v>
       </c>
       <c r="F91">
         <v>1.18</v>
@@ -2841,10 +2887,10 @@
         <v>9.57</v>
       </c>
       <c r="H91">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2000</v>
       </c>
@@ -2864,13 +2910,13 @@
         <v>0.93</v>
       </c>
       <c r="G92">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="H92">
         <v>0.96</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2000</v>
       </c>
@@ -2896,7 +2942,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2000</v>
       </c>
@@ -2916,13 +2962,13 @@
         <v>0.72</v>
       </c>
       <c r="G94">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H94">
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1800</v>
       </c>
@@ -2930,7 +2976,7 @@
         <v>48.9</v>
       </c>
       <c r="C95">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D95">
         <v>100</v>
@@ -2945,10 +2991,10 @@
         <v>20.29</v>
       </c>
       <c r="H95">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1800</v>
       </c>
@@ -2959,7 +3005,7 @@
         <v>9.19</v>
       </c>
       <c r="D96">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E96">
         <v>236.22</v>
@@ -2971,10 +3017,10 @@
         <v>20.09</v>
       </c>
       <c r="H96">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1800</v>
       </c>
@@ -2991,7 +3037,7 @@
         <v>235.43</v>
       </c>
       <c r="F97">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G97">
         <v>18.48</v>
@@ -3000,7 +3046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1800</v>
       </c>
@@ -3026,7 +3072,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1800</v>
       </c>
@@ -3052,7 +3098,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1800</v>
       </c>
@@ -3078,7 +3124,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1800</v>
       </c>
@@ -3092,7 +3138,7 @@
         <v>37</v>
       </c>
       <c r="E101">
-        <v>260.59</v>
+        <v>260.58999999999997</v>
       </c>
       <c r="F101">
         <v>1.23</v>
@@ -3104,7 +3150,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1800</v>
       </c>
@@ -3130,7 +3176,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1800</v>
       </c>
@@ -3156,7 +3202,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1800</v>
       </c>
@@ -3182,7 +3228,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1800</v>
       </c>
@@ -3190,13 +3236,13 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D105">
         <v>13.8</v>
       </c>
       <c r="E105">
-        <v>564.67</v>
+        <v>564.66999999999996</v>
       </c>
       <c r="F105">
         <v>0.51</v>
@@ -3208,7 +3254,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1600</v>
       </c>
@@ -3234,7 +3280,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1600</v>
       </c>
@@ -3245,7 +3291,7 @@
         <v>7.56</v>
       </c>
       <c r="D107">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E107">
         <v>238.85</v>
@@ -3260,18 +3306,18 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1600</v>
       </c>
       <c r="B108">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C108">
         <v>6.67</v>
       </c>
       <c r="D108">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E108">
         <v>237.76</v>
@@ -3286,7 +3332,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1600</v>
       </c>
@@ -3312,7 +3358,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1600</v>
       </c>
@@ -3338,7 +3384,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1600</v>
       </c>
@@ -3346,7 +3392,7 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D111">
         <v>39.6</v>
@@ -3364,7 +3410,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1600</v>
       </c>
@@ -3375,10 +3421,10 @@
         <v>3.35</v>
       </c>
       <c r="D112">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E112">
-        <v>269.85</v>
+        <v>269.85000000000002</v>
       </c>
       <c r="F112">
         <v>0.91</v>
@@ -3390,7 +3436,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1600</v>
       </c>
@@ -3398,13 +3444,13 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D113">
         <v>25.9</v>
       </c>
       <c r="E113">
-        <v>296.65</v>
+        <v>296.64999999999998</v>
       </c>
       <c r="F113">
         <v>0.75</v>
@@ -3416,7 +3462,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1600</v>
       </c>
@@ -3427,7 +3473,7 @@
         <v>1.68</v>
       </c>
       <c r="D114">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E114">
         <v>354.06</v>
@@ -3439,10 +3485,10 @@
         <v>6.18</v>
       </c>
       <c r="H114">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1600</v>
       </c>
@@ -3468,7 +3514,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1400</v>
       </c>
@@ -3494,12 +3540,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1400</v>
       </c>
       <c r="B117">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C117">
         <v>5.91</v>
@@ -3520,7 +3566,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1400</v>
       </c>
@@ -3546,7 +3592,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1400</v>
       </c>
@@ -3554,7 +3600,7 @@
         <v>30</v>
       </c>
       <c r="C119">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D119">
         <v>54.9</v>
@@ -3572,7 +3618,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1400</v>
       </c>
@@ -3589,7 +3635,7 @@
         <v>251.42</v>
       </c>
       <c r="F120">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G120">
         <v>10.97</v>
@@ -3598,7 +3644,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1400</v>
       </c>
@@ -3624,7 +3670,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1400</v>
       </c>
@@ -3632,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D122">
         <v>27.2</v>
@@ -3650,7 +3696,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1400</v>
       </c>
@@ -3661,7 +3707,7 @@
         <v>1.46</v>
       </c>
       <c r="D123">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E123">
         <v>345.94</v>
@@ -3676,7 +3722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1400</v>
       </c>
@@ -3690,19 +3736,19 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>514.3200000000001</v>
+        <v>514.32000000000005</v>
       </c>
       <c r="F124">
         <v>0.45</v>
       </c>
       <c r="G124">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H124">
         <v>0.38</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1200</v>
       </c>
@@ -3710,7 +3756,7 @@
         <v>35.9</v>
       </c>
       <c r="C125">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D125">
         <v>100</v>
@@ -3728,7 +3774,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1200</v>
       </c>
@@ -3739,7 +3785,7 @@
         <v>4.45</v>
       </c>
       <c r="D126">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E126">
         <v>261.93</v>
@@ -3754,7 +3800,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1200</v>
       </c>
@@ -3768,7 +3814,7 @@
         <v>63.4</v>
       </c>
       <c r="E127">
-        <v>257.84</v>
+        <v>257.83999999999997</v>
       </c>
       <c r="F127">
         <v>1.05</v>
@@ -3780,7 +3826,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1200</v>
       </c>
@@ -3794,7 +3840,7 @@
         <v>44.5</v>
       </c>
       <c r="E128">
-        <v>256.71</v>
+        <v>256.70999999999998</v>
       </c>
       <c r="F128">
         <v>0.93</v>
@@ -3806,7 +3852,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1200</v>
       </c>
@@ -3814,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="C129">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D129">
         <v>37</v>
@@ -3832,7 +3878,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1200</v>
       </c>
@@ -3846,7 +3892,7 @@
         <v>28.2</v>
       </c>
       <c r="E130">
-        <v>282.65</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="F130">
         <v>0.35</v>
@@ -3858,7 +3904,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1200</v>
       </c>
@@ -3884,7 +3930,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1200</v>
       </c>
@@ -3916,14 +3962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ZZ132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:702">
+    <row r="1" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3949,16 +3995,16 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:702">
+        <f>C8</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3600</v>
       </c>
       <c r="B2">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C2">
         <v>15.38</v>
@@ -3970,7 +4016,7 @@
         <v>274.38</v>
       </c>
       <c r="F2">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G2">
         <v>19.54</v>
@@ -3979,11 +4025,11 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:702">
+        <f>C9</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -3994,22 +4040,26 @@
         <v>15.08</v>
       </c>
       <c r="D3">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="E3">
-        <v>274.84</v>
+        <v>274.83999999999997</v>
       </c>
       <c r="F3">
         <v>4.17</v>
       </c>
       <c r="G3">
-        <v>19.19</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="H3">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:702">
+      <c r="ZZ3">
+        <f>C8+C9</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3600</v>
       </c>
@@ -4020,7 +4070,7 @@
         <v>13.2</v>
       </c>
       <c r="D4">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E4">
         <v>283.75</v>
@@ -4035,7 +4085,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:702">
+    <row r="5" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3600</v>
       </c>
@@ -4061,7 +4111,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="6" spans="1:702">
+    <row r="6" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3600</v>
       </c>
@@ -4087,7 +4137,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="7" spans="1:702">
+    <row r="7" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3600</v>
       </c>
@@ -4104,7 +4154,7 @@
         <v>341.02</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G7">
         <v>11.9</v>
@@ -4113,7 +4163,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="8" spans="1:702">
+    <row r="8" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3600</v>
       </c>
@@ -4130,7 +4180,7 @@
         <v>387.61</v>
       </c>
       <c r="F8">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G8">
         <v>10.14</v>
@@ -4139,7 +4189,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:702">
+    <row r="9" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3600</v>
       </c>
@@ -4165,7 +4215,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="10" spans="1:702">
+    <row r="10" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3600</v>
       </c>
@@ -4191,7 +4241,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="11" spans="1:702">
+    <row r="11" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3400</v>
       </c>
@@ -4217,7 +4267,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="12" spans="1:702">
+    <row r="12" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3400</v>
       </c>
@@ -4231,7 +4281,7 @@
         <v>86.8</v>
       </c>
       <c r="E12">
-        <v>270.29</v>
+        <v>270.29000000000002</v>
       </c>
       <c r="F12">
         <v>3.83</v>
@@ -4243,7 +4293,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="13" spans="1:702">
+    <row r="13" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3400</v>
       </c>
@@ -4254,7 +4304,7 @@
         <v>12.46</v>
       </c>
       <c r="D13">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E13">
         <v>279.08</v>
@@ -4269,7 +4319,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="14" spans="1:702">
+    <row r="14" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3400</v>
       </c>
@@ -4283,7 +4333,7 @@
         <v>58.9</v>
       </c>
       <c r="E14">
-        <v>290.97</v>
+        <v>290.97000000000003</v>
       </c>
       <c r="F14">
         <v>3.1</v>
@@ -4295,7 +4345,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="15" spans="1:702">
+    <row r="15" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3400</v>
       </c>
@@ -4321,7 +4371,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="16" spans="1:702">
+    <row r="16" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3400</v>
       </c>
@@ -4347,7 +4397,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3400</v>
       </c>
@@ -4358,7 +4408,7 @@
         <v>5.34</v>
       </c>
       <c r="D17">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E17">
         <v>378.25</v>
@@ -4373,7 +4423,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3400</v>
       </c>
@@ -4393,13 +4443,13 @@
         <v>1.7</v>
       </c>
       <c r="G18">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H18">
         <v>1.68</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3400</v>
       </c>
@@ -4425,7 +4475,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -4451,7 +4501,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3200</v>
       </c>
@@ -4462,22 +4512,22 @@
         <v>15.01</v>
       </c>
       <c r="D21">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E21">
-        <v>259.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="F21">
         <v>3.94</v>
       </c>
       <c r="G21">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="H21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3200</v>
       </c>
@@ -4497,13 +4547,13 @@
         <v>3.54</v>
       </c>
       <c r="G22">
-        <v>18.51</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="H22">
         <v>3.56</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3200</v>
       </c>
@@ -4514,7 +4564,7 @@
         <v>11.73</v>
       </c>
       <c r="D23">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E23">
         <v>273.99</v>
@@ -4529,7 +4579,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3200</v>
       </c>
@@ -4537,13 +4587,13 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D24">
         <v>57.3</v>
       </c>
       <c r="E24">
-        <v>285.21</v>
+        <v>285.20999999999998</v>
       </c>
       <c r="F24">
         <v>2.85</v>
@@ -4555,7 +4605,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3200</v>
       </c>
@@ -4563,7 +4613,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D25">
         <v>48.4</v>
@@ -4581,7 +4631,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3200</v>
       </c>
@@ -4595,10 +4645,10 @@
         <v>42.9</v>
       </c>
       <c r="E26">
-        <v>323.65</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="F26">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G26">
         <v>11.3</v>
@@ -4607,7 +4657,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3200</v>
       </c>
@@ -4615,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="D27">
         <v>39.1</v>
@@ -4633,7 +4683,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3200</v>
       </c>
@@ -4659,7 +4709,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3200</v>
       </c>
@@ -4685,7 +4735,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -4711,7 +4761,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -4731,13 +4781,13 @@
         <v>3.61</v>
       </c>
       <c r="G31">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H31">
         <v>3.59</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -4748,10 +4798,10 @@
         <v>12.57</v>
       </c>
       <c r="D32">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E32">
-        <v>258.15</v>
+        <v>258.14999999999998</v>
       </c>
       <c r="F32">
         <v>3.26</v>
@@ -4763,7 +4813,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3000</v>
       </c>
@@ -4789,7 +4839,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -4815,7 +4865,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -4841,7 +4891,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3000</v>
       </c>
@@ -4855,7 +4905,7 @@
         <v>41.1</v>
       </c>
       <c r="E36">
-        <v>316.34</v>
+        <v>316.33999999999997</v>
       </c>
       <c r="F36">
         <v>1.98</v>
@@ -4867,7 +4917,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3000</v>
       </c>
@@ -4878,7 +4928,7 @@
         <v>4.71</v>
       </c>
       <c r="D37">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E37">
         <v>351.17</v>
@@ -4893,7 +4943,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3000</v>
       </c>
@@ -4919,7 +4969,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -4945,7 +4995,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2800</v>
       </c>
@@ -4971,7 +5021,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2800</v>
       </c>
@@ -4982,7 +5032,7 @@
         <v>14.52</v>
       </c>
       <c r="D41">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E41">
         <v>248.87</v>
@@ -4997,7 +5047,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2800</v>
       </c>
@@ -5008,7 +5058,7 @@
         <v>13.18</v>
       </c>
       <c r="D42">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E42">
         <v>252.43</v>
@@ -5017,13 +5067,13 @@
         <v>3.34</v>
       </c>
       <c r="G42">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="H42">
         <v>3.33</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2800</v>
       </c>
@@ -5049,7 +5099,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2800</v>
       </c>
@@ -5069,13 +5119,13 @@
         <v>2.71</v>
       </c>
       <c r="G44">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="H44">
         <v>2.71</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2800</v>
       </c>
@@ -5083,7 +5133,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D45">
         <v>49.2</v>
@@ -5101,7 +5151,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2800</v>
       </c>
@@ -5124,10 +5174,10 @@
         <v>12.35</v>
       </c>
       <c r="H46">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2800</v>
       </c>
@@ -5138,7 +5188,7 @@
         <v>5.87</v>
       </c>
       <c r="D47">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E47">
         <v>304.07</v>
@@ -5153,7 +5203,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2800</v>
       </c>
@@ -5161,10 +5211,10 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D48">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E48">
         <v>342.77</v>
@@ -5179,7 +5229,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2800</v>
       </c>
@@ -5205,7 +5255,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2800</v>
       </c>
@@ -5231,7 +5281,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2600</v>
       </c>
@@ -5257,7 +5307,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2600</v>
       </c>
@@ -5283,7 +5333,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2600</v>
       </c>
@@ -5309,7 +5359,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2600</v>
       </c>
@@ -5329,13 +5379,13 @@
         <v>2.79</v>
       </c>
       <c r="G54">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="H54">
         <v>2.78</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2600</v>
       </c>
@@ -5343,7 +5393,7 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D55">
         <v>52</v>
@@ -5352,16 +5402,16 @@
         <v>259.56</v>
       </c>
       <c r="F55">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G55">
         <v>15.85</v>
       </c>
       <c r="H55">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2600</v>
       </c>
@@ -5387,7 +5437,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2600</v>
       </c>
@@ -5413,7 +5463,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2600</v>
       </c>
@@ -5424,10 +5474,10 @@
         <v>5.45</v>
       </c>
       <c r="D58">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E58">
-        <v>294.72</v>
+        <v>294.72000000000003</v>
       </c>
       <c r="F58">
         <v>1.58</v>
@@ -5439,7 +5489,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2600</v>
       </c>
@@ -5465,7 +5515,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2600</v>
       </c>
@@ -5476,22 +5526,22 @@
         <v>2.72</v>
       </c>
       <c r="D60">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E60">
         <v>402.51</v>
       </c>
       <c r="F60">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G60">
         <v>7.01</v>
       </c>
       <c r="H60">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2600</v>
       </c>
@@ -5517,7 +5567,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2400</v>
       </c>
@@ -5543,7 +5593,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2400</v>
       </c>
@@ -5554,7 +5604,7 @@
         <v>12.55</v>
       </c>
       <c r="D63">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E63">
         <v>240.39</v>
@@ -5569,7 +5619,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2400</v>
       </c>
@@ -5595,7 +5645,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2400</v>
       </c>
@@ -5603,7 +5653,7 @@
         <v>40</v>
       </c>
       <c r="C65">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D65">
         <v>55.1</v>
@@ -5618,10 +5668,10 @@
         <v>17.54</v>
       </c>
       <c r="H65">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2400</v>
       </c>
@@ -5629,7 +5679,7 @@
         <v>35</v>
       </c>
       <c r="C66">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D66">
         <v>46.1</v>
@@ -5647,7 +5697,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2400</v>
       </c>
@@ -5673,7 +5723,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2400</v>
       </c>
@@ -5699,7 +5749,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2400</v>
       </c>
@@ -5713,7 +5763,7 @@
         <v>31.2</v>
       </c>
       <c r="E69">
-        <v>286.84</v>
+        <v>286.83999999999997</v>
       </c>
       <c r="F69">
         <v>1.42</v>
@@ -5725,7 +5775,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2400</v>
       </c>
@@ -5751,7 +5801,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2400</v>
       </c>
@@ -5759,10 +5809,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D71">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E71">
         <v>383.05</v>
@@ -5777,7 +5827,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2400</v>
       </c>
@@ -5803,7 +5853,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2200</v>
       </c>
@@ -5829,7 +5879,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2200</v>
       </c>
@@ -5855,7 +5905,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2200</v>
       </c>
@@ -5878,10 +5928,10 @@
         <v>19.18</v>
       </c>
       <c r="H75">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2200</v>
       </c>
@@ -5889,7 +5939,7 @@
         <v>40</v>
       </c>
       <c r="C76">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D76">
         <v>55.7</v>
@@ -5907,7 +5957,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2200</v>
       </c>
@@ -5933,7 +5983,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2200</v>
       </c>
@@ -5959,7 +6009,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2200</v>
       </c>
@@ -5985,12 +6035,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2200</v>
       </c>
       <c r="B80">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C80">
         <v>4.62</v>
@@ -5999,7 +6049,7 @@
         <v>31.4</v>
       </c>
       <c r="E80">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F80">
         <v>1.29</v>
@@ -6011,7 +6061,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2200</v>
       </c>
@@ -6028,7 +6078,7 @@
         <v>313.19</v>
       </c>
       <c r="F81">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G81">
         <v>8.19</v>
@@ -6037,7 +6087,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2200</v>
       </c>
@@ -6045,7 +6095,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D82">
         <v>17.5</v>
@@ -6063,7 +6113,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2200</v>
       </c>
@@ -6071,13 +6121,13 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D83">
         <v>14.4</v>
       </c>
       <c r="E83">
-        <v>594.0700000000001</v>
+        <v>594.07000000000005</v>
       </c>
       <c r="F83">
         <v>0.71</v>
@@ -6089,7 +6139,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2000</v>
       </c>
@@ -6115,7 +6165,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2000</v>
       </c>
@@ -6126,7 +6176,7 @@
         <v>10.46</v>
       </c>
       <c r="D85">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E85">
         <v>243.98</v>
@@ -6138,10 +6188,10 @@
         <v>21.27</v>
       </c>
       <c r="H85">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2000</v>
       </c>
@@ -6164,10 +6214,10 @@
         <v>18.48</v>
       </c>
       <c r="H86">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2000</v>
       </c>
@@ -6175,7 +6225,7 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D87">
         <v>56.2</v>
@@ -6193,7 +6243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2000</v>
       </c>
@@ -6219,7 +6269,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2000</v>
       </c>
@@ -6245,7 +6295,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2000</v>
       </c>
@@ -6256,7 +6306,7 @@
         <v>5.23</v>
       </c>
       <c r="D90">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E90">
         <v>258.18</v>
@@ -6271,7 +6321,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2000</v>
       </c>
@@ -6279,13 +6329,13 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D91">
         <v>30.1</v>
       </c>
       <c r="E91">
-        <v>274.15</v>
+        <v>274.14999999999998</v>
       </c>
       <c r="F91">
         <v>1.18</v>
@@ -6294,10 +6344,10 @@
         <v>9.57</v>
       </c>
       <c r="H91">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2000</v>
       </c>
@@ -6317,13 +6367,13 @@
         <v>0.93</v>
       </c>
       <c r="G92">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="H92">
         <v>0.96</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2000</v>
       </c>
@@ -6349,7 +6399,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2000</v>
       </c>
@@ -6369,13 +6419,13 @@
         <v>0.72</v>
       </c>
       <c r="G94">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H94">
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1800</v>
       </c>
@@ -6383,7 +6433,7 @@
         <v>48.9</v>
       </c>
       <c r="C95">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D95">
         <v>100</v>
@@ -6398,10 +6448,10 @@
         <v>20.29</v>
       </c>
       <c r="H95">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1800</v>
       </c>
@@ -6412,7 +6462,7 @@
         <v>9.19</v>
       </c>
       <c r="D96">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E96">
         <v>236.22</v>
@@ -6424,10 +6474,10 @@
         <v>20.09</v>
       </c>
       <c r="H96">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1800</v>
       </c>
@@ -6444,7 +6494,7 @@
         <v>235.43</v>
       </c>
       <c r="F97">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G97">
         <v>18.48</v>
@@ -6453,7 +6503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1800</v>
       </c>
@@ -6479,7 +6529,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1800</v>
       </c>
@@ -6505,7 +6555,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1800</v>
       </c>
@@ -6531,7 +6581,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1800</v>
       </c>
@@ -6545,7 +6595,7 @@
         <v>37</v>
       </c>
       <c r="E101">
-        <v>260.59</v>
+        <v>260.58999999999997</v>
       </c>
       <c r="F101">
         <v>1.23</v>
@@ -6557,7 +6607,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1800</v>
       </c>
@@ -6583,7 +6633,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1800</v>
       </c>
@@ -6609,7 +6659,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1800</v>
       </c>
@@ -6635,7 +6685,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1800</v>
       </c>
@@ -6643,13 +6693,13 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D105">
         <v>13.8</v>
       </c>
       <c r="E105">
-        <v>564.67</v>
+        <v>564.66999999999996</v>
       </c>
       <c r="F105">
         <v>0.51</v>
@@ -6661,7 +6711,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1600</v>
       </c>
@@ -6687,7 +6737,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1600</v>
       </c>
@@ -6698,7 +6748,7 @@
         <v>7.56</v>
       </c>
       <c r="D107">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E107">
         <v>238.85</v>
@@ -6713,18 +6763,18 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1600</v>
       </c>
       <c r="B108">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C108">
         <v>6.67</v>
       </c>
       <c r="D108">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E108">
         <v>237.76</v>
@@ -6739,7 +6789,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1600</v>
       </c>
@@ -6765,7 +6815,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1600</v>
       </c>
@@ -6791,7 +6841,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1600</v>
       </c>
@@ -6799,7 +6849,7 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D111">
         <v>39.6</v>
@@ -6817,7 +6867,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1600</v>
       </c>
@@ -6828,10 +6878,10 @@
         <v>3.35</v>
       </c>
       <c r="D112">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E112">
-        <v>269.85</v>
+        <v>269.85000000000002</v>
       </c>
       <c r="F112">
         <v>0.91</v>
@@ -6843,7 +6893,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1600</v>
       </c>
@@ -6851,13 +6901,13 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D113">
         <v>25.9</v>
       </c>
       <c r="E113">
-        <v>296.65</v>
+        <v>296.64999999999998</v>
       </c>
       <c r="F113">
         <v>0.75</v>
@@ -6869,7 +6919,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1600</v>
       </c>
@@ -6880,7 +6930,7 @@
         <v>1.68</v>
       </c>
       <c r="D114">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E114">
         <v>354.06</v>
@@ -6892,10 +6942,10 @@
         <v>6.18</v>
       </c>
       <c r="H114">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1600</v>
       </c>
@@ -6921,7 +6971,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1400</v>
       </c>
@@ -6947,12 +6997,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1400</v>
       </c>
       <c r="B117">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C117">
         <v>5.91</v>
@@ -6973,7 +7023,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1400</v>
       </c>
@@ -6999,7 +7049,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1400</v>
       </c>
@@ -7007,7 +7057,7 @@
         <v>30</v>
       </c>
       <c r="C119">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D119">
         <v>54.9</v>
@@ -7025,7 +7075,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1400</v>
       </c>
@@ -7042,7 +7092,7 @@
         <v>251.42</v>
       </c>
       <c r="F120">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G120">
         <v>10.97</v>
@@ -7051,7 +7101,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1400</v>
       </c>
@@ -7077,7 +7127,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1400</v>
       </c>
@@ -7085,7 +7135,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D122">
         <v>27.2</v>
@@ -7103,7 +7153,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1400</v>
       </c>
@@ -7114,7 +7164,7 @@
         <v>1.46</v>
       </c>
       <c r="D123">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E123">
         <v>345.94</v>
@@ -7129,7 +7179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1400</v>
       </c>
@@ -7143,19 +7193,19 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>514.3200000000001</v>
+        <v>514.32000000000005</v>
       </c>
       <c r="F124">
         <v>0.45</v>
       </c>
       <c r="G124">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H124">
         <v>0.38</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1200</v>
       </c>
@@ -7163,7 +7213,7 @@
         <v>35.9</v>
       </c>
       <c r="C125">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D125">
         <v>100</v>
@@ -7181,7 +7231,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1200</v>
       </c>
@@ -7192,7 +7242,7 @@
         <v>4.45</v>
       </c>
       <c r="D126">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E126">
         <v>261.93</v>
@@ -7207,7 +7257,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1200</v>
       </c>
@@ -7221,7 +7271,7 @@
         <v>63.4</v>
       </c>
       <c r="E127">
-        <v>257.84</v>
+        <v>257.83999999999997</v>
       </c>
       <c r="F127">
         <v>1.05</v>
@@ -7233,7 +7283,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1200</v>
       </c>
@@ -7247,7 +7297,7 @@
         <v>44.5</v>
       </c>
       <c r="E128">
-        <v>256.71</v>
+        <v>256.70999999999998</v>
       </c>
       <c r="F128">
         <v>0.93</v>
@@ -7259,7 +7309,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1200</v>
       </c>
@@ -7267,7 +7317,7 @@
         <v>20</v>
       </c>
       <c r="C129">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D129">
         <v>37</v>
@@ -7285,7 +7335,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1200</v>
       </c>
@@ -7299,7 +7349,7 @@
         <v>28.2</v>
       </c>
       <c r="E130">
-        <v>282.65</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="F130">
         <v>0.35</v>
@@ -7311,7 +7361,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1200</v>
       </c>
@@ -7337,7 +7387,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1200</v>
       </c>
@@ -7369,14 +7419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ZZ132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:702">
+    <row r="1" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7402,16 +7452,16 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:702">
+        <f>C8</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3600</v>
       </c>
       <c r="B2">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C2">
         <v>15.38</v>
@@ -7423,7 +7473,7 @@
         <v>274.38</v>
       </c>
       <c r="F2">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G2">
         <v>19.54</v>
@@ -7432,11 +7482,11 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:702">
+        <f>C9</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -7447,22 +7497,26 @@
         <v>15.08</v>
       </c>
       <c r="D3">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="E3">
-        <v>274.84</v>
+        <v>274.83999999999997</v>
       </c>
       <c r="F3">
         <v>4.17</v>
       </c>
       <c r="G3">
-        <v>19.19</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="H3">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:702">
+      <c r="ZZ3">
+        <f>C8+C9</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3600</v>
       </c>
@@ -7473,7 +7527,7 @@
         <v>13.2</v>
       </c>
       <c r="D4">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E4">
         <v>283.75</v>
@@ -7488,7 +7542,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:702">
+    <row r="5" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3600</v>
       </c>
@@ -7514,7 +7568,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="6" spans="1:702">
+    <row r="6" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3600</v>
       </c>
@@ -7540,7 +7594,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="7" spans="1:702">
+    <row r="7" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3600</v>
       </c>
@@ -7557,7 +7611,7 @@
         <v>341.02</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G7">
         <v>11.9</v>
@@ -7566,7 +7620,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="8" spans="1:702">
+    <row r="8" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3600</v>
       </c>
@@ -7583,7 +7637,7 @@
         <v>387.61</v>
       </c>
       <c r="F8">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G8">
         <v>10.14</v>
@@ -7592,7 +7646,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:702">
+    <row r="9" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3600</v>
       </c>
@@ -7618,7 +7672,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="10" spans="1:702">
+    <row r="10" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3600</v>
       </c>
@@ -7644,7 +7698,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="11" spans="1:702">
+    <row r="11" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3400</v>
       </c>
@@ -7670,7 +7724,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="12" spans="1:702">
+    <row r="12" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3400</v>
       </c>
@@ -7684,7 +7738,7 @@
         <v>86.8</v>
       </c>
       <c r="E12">
-        <v>270.29</v>
+        <v>270.29000000000002</v>
       </c>
       <c r="F12">
         <v>3.83</v>
@@ -7696,7 +7750,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="13" spans="1:702">
+    <row r="13" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3400</v>
       </c>
@@ -7707,7 +7761,7 @@
         <v>12.46</v>
       </c>
       <c r="D13">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E13">
         <v>279.08</v>
@@ -7722,7 +7776,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="14" spans="1:702">
+    <row r="14" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3400</v>
       </c>
@@ -7736,7 +7790,7 @@
         <v>58.9</v>
       </c>
       <c r="E14">
-        <v>290.97</v>
+        <v>290.97000000000003</v>
       </c>
       <c r="F14">
         <v>3.1</v>
@@ -7748,7 +7802,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="15" spans="1:702">
+    <row r="15" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3400</v>
       </c>
@@ -7774,7 +7828,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="16" spans="1:702">
+    <row r="16" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3400</v>
       </c>
@@ -7800,7 +7854,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3400</v>
       </c>
@@ -7811,7 +7865,7 @@
         <v>5.34</v>
       </c>
       <c r="D17">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E17">
         <v>378.25</v>
@@ -7826,7 +7880,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3400</v>
       </c>
@@ -7846,13 +7900,13 @@
         <v>1.7</v>
       </c>
       <c r="G18">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H18">
         <v>1.68</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3400</v>
       </c>
@@ -7878,7 +7932,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -7904,7 +7958,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3200</v>
       </c>
@@ -7915,22 +7969,22 @@
         <v>15.01</v>
       </c>
       <c r="D21">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E21">
-        <v>259.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="F21">
         <v>3.94</v>
       </c>
       <c r="G21">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="H21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3200</v>
       </c>
@@ -7950,13 +8004,13 @@
         <v>3.54</v>
       </c>
       <c r="G22">
-        <v>18.51</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="H22">
         <v>3.56</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3200</v>
       </c>
@@ -7967,7 +8021,7 @@
         <v>11.73</v>
       </c>
       <c r="D23">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E23">
         <v>273.99</v>
@@ -7982,7 +8036,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3200</v>
       </c>
@@ -7990,13 +8044,13 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D24">
         <v>57.3</v>
       </c>
       <c r="E24">
-        <v>285.21</v>
+        <v>285.20999999999998</v>
       </c>
       <c r="F24">
         <v>2.85</v>
@@ -8008,7 +8062,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3200</v>
       </c>
@@ -8016,7 +8070,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D25">
         <v>48.4</v>
@@ -8034,7 +8088,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3200</v>
       </c>
@@ -8048,10 +8102,10 @@
         <v>42.9</v>
       </c>
       <c r="E26">
-        <v>323.65</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="F26">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G26">
         <v>11.3</v>
@@ -8060,7 +8114,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3200</v>
       </c>
@@ -8068,7 +8122,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="D27">
         <v>39.1</v>
@@ -8086,7 +8140,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3200</v>
       </c>
@@ -8112,7 +8166,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3200</v>
       </c>
@@ -8138,7 +8192,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -8164,7 +8218,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -8184,13 +8238,13 @@
         <v>3.61</v>
       </c>
       <c r="G31">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H31">
         <v>3.59</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -8201,10 +8255,10 @@
         <v>12.57</v>
       </c>
       <c r="D32">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E32">
-        <v>258.15</v>
+        <v>258.14999999999998</v>
       </c>
       <c r="F32">
         <v>3.26</v>
@@ -8216,7 +8270,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3000</v>
       </c>
@@ -8242,7 +8296,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -8268,7 +8322,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -8294,7 +8348,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3000</v>
       </c>
@@ -8308,7 +8362,7 @@
         <v>41.1</v>
       </c>
       <c r="E36">
-        <v>316.34</v>
+        <v>316.33999999999997</v>
       </c>
       <c r="F36">
         <v>1.98</v>
@@ -8320,7 +8374,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3000</v>
       </c>
@@ -8331,7 +8385,7 @@
         <v>4.71</v>
       </c>
       <c r="D37">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E37">
         <v>351.17</v>
@@ -8346,7 +8400,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3000</v>
       </c>
@@ -8372,7 +8426,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -8398,7 +8452,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2800</v>
       </c>
@@ -8424,7 +8478,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2800</v>
       </c>
@@ -8435,7 +8489,7 @@
         <v>14.52</v>
       </c>
       <c r="D41">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E41">
         <v>248.87</v>
@@ -8450,7 +8504,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2800</v>
       </c>
@@ -8461,7 +8515,7 @@
         <v>13.18</v>
       </c>
       <c r="D42">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E42">
         <v>252.43</v>
@@ -8470,13 +8524,13 @@
         <v>3.34</v>
       </c>
       <c r="G42">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="H42">
         <v>3.33</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2800</v>
       </c>
@@ -8502,7 +8556,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2800</v>
       </c>
@@ -8522,13 +8576,13 @@
         <v>2.71</v>
       </c>
       <c r="G44">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="H44">
         <v>2.71</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2800</v>
       </c>
@@ -8536,7 +8590,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D45">
         <v>49.2</v>
@@ -8554,7 +8608,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2800</v>
       </c>
@@ -8577,10 +8631,10 @@
         <v>12.35</v>
       </c>
       <c r="H46">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2800</v>
       </c>
@@ -8591,7 +8645,7 @@
         <v>5.87</v>
       </c>
       <c r="D47">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E47">
         <v>304.07</v>
@@ -8606,7 +8660,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2800</v>
       </c>
@@ -8614,10 +8668,10 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D48">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E48">
         <v>342.77</v>
@@ -8632,7 +8686,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2800</v>
       </c>
@@ -8658,7 +8712,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2800</v>
       </c>
@@ -8684,7 +8738,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2600</v>
       </c>
@@ -8710,7 +8764,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2600</v>
       </c>
@@ -8736,7 +8790,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2600</v>
       </c>
@@ -8762,7 +8816,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2600</v>
       </c>
@@ -8782,13 +8836,13 @@
         <v>2.79</v>
       </c>
       <c r="G54">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="H54">
         <v>2.78</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2600</v>
       </c>
@@ -8796,7 +8850,7 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D55">
         <v>52</v>
@@ -8805,16 +8859,16 @@
         <v>259.56</v>
       </c>
       <c r="F55">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G55">
         <v>15.85</v>
       </c>
       <c r="H55">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2600</v>
       </c>
@@ -8840,7 +8894,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2600</v>
       </c>
@@ -8866,7 +8920,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2600</v>
       </c>
@@ -8877,10 +8931,10 @@
         <v>5.45</v>
       </c>
       <c r="D58">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E58">
-        <v>294.72</v>
+        <v>294.72000000000003</v>
       </c>
       <c r="F58">
         <v>1.58</v>
@@ -8892,7 +8946,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2600</v>
       </c>
@@ -8918,7 +8972,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2600</v>
       </c>
@@ -8929,22 +8983,22 @@
         <v>2.72</v>
       </c>
       <c r="D60">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E60">
         <v>402.51</v>
       </c>
       <c r="F60">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G60">
         <v>7.01</v>
       </c>
       <c r="H60">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2600</v>
       </c>
@@ -8970,7 +9024,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2400</v>
       </c>
@@ -8996,7 +9050,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2400</v>
       </c>
@@ -9007,7 +9061,7 @@
         <v>12.55</v>
       </c>
       <c r="D63">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E63">
         <v>240.39</v>
@@ -9022,7 +9076,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2400</v>
       </c>
@@ -9048,7 +9102,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2400</v>
       </c>
@@ -9056,7 +9110,7 @@
         <v>40</v>
       </c>
       <c r="C65">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D65">
         <v>55.1</v>
@@ -9071,10 +9125,10 @@
         <v>17.54</v>
       </c>
       <c r="H65">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2400</v>
       </c>
@@ -9082,7 +9136,7 @@
         <v>35</v>
       </c>
       <c r="C66">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D66">
         <v>46.1</v>
@@ -9100,7 +9154,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2400</v>
       </c>
@@ -9126,7 +9180,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2400</v>
       </c>
@@ -9152,7 +9206,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2400</v>
       </c>
@@ -9166,7 +9220,7 @@
         <v>31.2</v>
       </c>
       <c r="E69">
-        <v>286.84</v>
+        <v>286.83999999999997</v>
       </c>
       <c r="F69">
         <v>1.42</v>
@@ -9178,7 +9232,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2400</v>
       </c>
@@ -9204,7 +9258,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2400</v>
       </c>
@@ -9212,10 +9266,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D71">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E71">
         <v>383.05</v>
@@ -9230,7 +9284,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2400</v>
       </c>
@@ -9256,7 +9310,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2200</v>
       </c>
@@ -9282,7 +9336,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2200</v>
       </c>
@@ -9308,7 +9362,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2200</v>
       </c>
@@ -9331,10 +9385,10 @@
         <v>19.18</v>
       </c>
       <c r="H75">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2200</v>
       </c>
@@ -9342,7 +9396,7 @@
         <v>40</v>
       </c>
       <c r="C76">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D76">
         <v>55.7</v>
@@ -9360,7 +9414,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2200</v>
       </c>
@@ -9386,7 +9440,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2200</v>
       </c>
@@ -9412,7 +9466,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2200</v>
       </c>
@@ -9438,12 +9492,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2200</v>
       </c>
       <c r="B80">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C80">
         <v>4.62</v>
@@ -9452,7 +9506,7 @@
         <v>31.4</v>
       </c>
       <c r="E80">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F80">
         <v>1.29</v>
@@ -9464,7 +9518,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2200</v>
       </c>
@@ -9481,7 +9535,7 @@
         <v>313.19</v>
       </c>
       <c r="F81">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G81">
         <v>8.19</v>
@@ -9490,7 +9544,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2200</v>
       </c>
@@ -9498,7 +9552,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D82">
         <v>17.5</v>
@@ -9516,7 +9570,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2200</v>
       </c>
@@ -9524,13 +9578,13 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D83">
         <v>14.4</v>
       </c>
       <c r="E83">
-        <v>594.0700000000001</v>
+        <v>594.07000000000005</v>
       </c>
       <c r="F83">
         <v>0.71</v>
@@ -9542,7 +9596,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2000</v>
       </c>
@@ -9568,7 +9622,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2000</v>
       </c>
@@ -9579,7 +9633,7 @@
         <v>10.46</v>
       </c>
       <c r="D85">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E85">
         <v>243.98</v>
@@ -9591,10 +9645,10 @@
         <v>21.27</v>
       </c>
       <c r="H85">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2000</v>
       </c>
@@ -9617,10 +9671,10 @@
         <v>18.48</v>
       </c>
       <c r="H86">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2000</v>
       </c>
@@ -9628,7 +9682,7 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D87">
         <v>56.2</v>
@@ -9646,7 +9700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2000</v>
       </c>
@@ -9672,7 +9726,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2000</v>
       </c>
@@ -9698,7 +9752,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2000</v>
       </c>
@@ -9709,7 +9763,7 @@
         <v>5.23</v>
       </c>
       <c r="D90">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E90">
         <v>258.18</v>
@@ -9724,7 +9778,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2000</v>
       </c>
@@ -9732,13 +9786,13 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D91">
         <v>30.1</v>
       </c>
       <c r="E91">
-        <v>274.15</v>
+        <v>274.14999999999998</v>
       </c>
       <c r="F91">
         <v>1.18</v>
@@ -9747,10 +9801,10 @@
         <v>9.57</v>
       </c>
       <c r="H91">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2000</v>
       </c>
@@ -9770,13 +9824,13 @@
         <v>0.93</v>
       </c>
       <c r="G92">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="H92">
         <v>0.96</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2000</v>
       </c>
@@ -9802,7 +9856,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2000</v>
       </c>
@@ -9822,13 +9876,13 @@
         <v>0.72</v>
       </c>
       <c r="G94">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H94">
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1800</v>
       </c>
@@ -9836,7 +9890,7 @@
         <v>48.9</v>
       </c>
       <c r="C95">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D95">
         <v>100</v>
@@ -9851,10 +9905,10 @@
         <v>20.29</v>
       </c>
       <c r="H95">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1800</v>
       </c>
@@ -9865,7 +9919,7 @@
         <v>9.19</v>
       </c>
       <c r="D96">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E96">
         <v>236.22</v>
@@ -9877,10 +9931,10 @@
         <v>20.09</v>
       </c>
       <c r="H96">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1800</v>
       </c>
@@ -9897,7 +9951,7 @@
         <v>235.43</v>
       </c>
       <c r="F97">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G97">
         <v>18.48</v>
@@ -9906,7 +9960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1800</v>
       </c>
@@ -9932,7 +9986,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1800</v>
       </c>
@@ -9958,7 +10012,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1800</v>
       </c>
@@ -9984,7 +10038,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1800</v>
       </c>
@@ -9998,7 +10052,7 @@
         <v>37</v>
       </c>
       <c r="E101">
-        <v>260.59</v>
+        <v>260.58999999999997</v>
       </c>
       <c r="F101">
         <v>1.23</v>
@@ -10010,7 +10064,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1800</v>
       </c>
@@ -10036,7 +10090,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1800</v>
       </c>
@@ -10062,7 +10116,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1800</v>
       </c>
@@ -10088,7 +10142,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1800</v>
       </c>
@@ -10096,13 +10150,13 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D105">
         <v>13.8</v>
       </c>
       <c r="E105">
-        <v>564.67</v>
+        <v>564.66999999999996</v>
       </c>
       <c r="F105">
         <v>0.51</v>
@@ -10114,7 +10168,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1600</v>
       </c>
@@ -10140,7 +10194,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1600</v>
       </c>
@@ -10151,7 +10205,7 @@
         <v>7.56</v>
       </c>
       <c r="D107">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E107">
         <v>238.85</v>
@@ -10166,18 +10220,18 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1600</v>
       </c>
       <c r="B108">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C108">
         <v>6.67</v>
       </c>
       <c r="D108">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E108">
         <v>237.76</v>
@@ -10192,7 +10246,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1600</v>
       </c>
@@ -10218,7 +10272,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1600</v>
       </c>
@@ -10244,7 +10298,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1600</v>
       </c>
@@ -10252,7 +10306,7 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D111">
         <v>39.6</v>
@@ -10270,7 +10324,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1600</v>
       </c>
@@ -10281,10 +10335,10 @@
         <v>3.35</v>
       </c>
       <c r="D112">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E112">
-        <v>269.85</v>
+        <v>269.85000000000002</v>
       </c>
       <c r="F112">
         <v>0.91</v>
@@ -10296,7 +10350,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1600</v>
       </c>
@@ -10304,13 +10358,13 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D113">
         <v>25.9</v>
       </c>
       <c r="E113">
-        <v>296.65</v>
+        <v>296.64999999999998</v>
       </c>
       <c r="F113">
         <v>0.75</v>
@@ -10322,7 +10376,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1600</v>
       </c>
@@ -10333,7 +10387,7 @@
         <v>1.68</v>
       </c>
       <c r="D114">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E114">
         <v>354.06</v>
@@ -10345,10 +10399,10 @@
         <v>6.18</v>
       </c>
       <c r="H114">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1600</v>
       </c>
@@ -10374,7 +10428,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1400</v>
       </c>
@@ -10400,12 +10454,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1400</v>
       </c>
       <c r="B117">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C117">
         <v>5.91</v>
@@ -10426,7 +10480,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1400</v>
       </c>
@@ -10452,7 +10506,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1400</v>
       </c>
@@ -10460,7 +10514,7 @@
         <v>30</v>
       </c>
       <c r="C119">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D119">
         <v>54.9</v>
@@ -10478,7 +10532,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1400</v>
       </c>
@@ -10495,7 +10549,7 @@
         <v>251.42</v>
       </c>
       <c r="F120">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G120">
         <v>10.97</v>
@@ -10504,7 +10558,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1400</v>
       </c>
@@ -10530,7 +10584,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1400</v>
       </c>
@@ -10538,7 +10592,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D122">
         <v>27.2</v>
@@ -10556,7 +10610,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1400</v>
       </c>
@@ -10567,7 +10621,7 @@
         <v>1.46</v>
       </c>
       <c r="D123">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E123">
         <v>345.94</v>
@@ -10582,7 +10636,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1400</v>
       </c>
@@ -10596,19 +10650,19 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>514.3200000000001</v>
+        <v>514.32000000000005</v>
       </c>
       <c r="F124">
         <v>0.45</v>
       </c>
       <c r="G124">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H124">
         <v>0.38</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1200</v>
       </c>
@@ -10616,7 +10670,7 @@
         <v>35.9</v>
       </c>
       <c r="C125">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D125">
         <v>100</v>
@@ -10634,7 +10688,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1200</v>
       </c>
@@ -10645,7 +10699,7 @@
         <v>4.45</v>
       </c>
       <c r="D126">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E126">
         <v>261.93</v>
@@ -10660,7 +10714,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1200</v>
       </c>
@@ -10674,7 +10728,7 @@
         <v>63.4</v>
       </c>
       <c r="E127">
-        <v>257.84</v>
+        <v>257.83999999999997</v>
       </c>
       <c r="F127">
         <v>1.05</v>
@@ -10686,7 +10740,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1200</v>
       </c>
@@ -10700,7 +10754,7 @@
         <v>44.5</v>
       </c>
       <c r="E128">
-        <v>256.71</v>
+        <v>256.70999999999998</v>
       </c>
       <c r="F128">
         <v>0.93</v>
@@ -10712,7 +10766,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1200</v>
       </c>
@@ -10720,7 +10774,7 @@
         <v>20</v>
       </c>
       <c r="C129">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D129">
         <v>37</v>
@@ -10738,7 +10792,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1200</v>
       </c>
@@ -10752,7 +10806,7 @@
         <v>28.2</v>
       </c>
       <c r="E130">
-        <v>282.65</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="F130">
         <v>0.35</v>
@@ -10764,7 +10818,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1200</v>
       </c>
@@ -10790,7 +10844,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1200</v>
       </c>
@@ -10822,14 +10876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ZZ132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:702">
+    <row r="1" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10855,16 +10909,16 @@
         <v>7</v>
       </c>
       <c r="ZZ1">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:702">
+        <f>C8</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3600</v>
       </c>
       <c r="B2">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="C2">
         <v>15.38</v>
@@ -10876,7 +10930,7 @@
         <v>274.38</v>
       </c>
       <c r="F2">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G2">
         <v>19.54</v>
@@ -10885,11 +10939,11 @@
         <v>4.22</v>
       </c>
       <c r="ZZ2">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:702">
+        <f>C9</f>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3600</v>
       </c>
@@ -10900,22 +10954,26 @@
         <v>15.08</v>
       </c>
       <c r="D3">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="E3">
-        <v>274.84</v>
+        <v>274.83999999999997</v>
       </c>
       <c r="F3">
         <v>4.17</v>
       </c>
       <c r="G3">
-        <v>19.19</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="H3">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:702">
+      <c r="ZZ3">
+        <f>C8+C9</f>
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3600</v>
       </c>
@@ -10926,7 +10984,7 @@
         <v>13.2</v>
       </c>
       <c r="D4">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E4">
         <v>283.75</v>
@@ -10941,7 +10999,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:702">
+    <row r="5" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3600</v>
       </c>
@@ -10967,7 +11025,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="6" spans="1:702">
+    <row r="6" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3600</v>
       </c>
@@ -10993,7 +11051,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="7" spans="1:702">
+    <row r="7" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3600</v>
       </c>
@@ -11010,7 +11068,7 @@
         <v>341.02</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G7">
         <v>11.9</v>
@@ -11019,7 +11077,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="8" spans="1:702">
+    <row r="8" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3600</v>
       </c>
@@ -11036,7 +11094,7 @@
         <v>387.61</v>
       </c>
       <c r="F8">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G8">
         <v>10.14</v>
@@ -11045,7 +11103,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:702">
+    <row r="9" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3600</v>
       </c>
@@ -11071,7 +11129,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="10" spans="1:702">
+    <row r="10" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3600</v>
       </c>
@@ -11097,7 +11155,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="11" spans="1:702">
+    <row r="11" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3400</v>
       </c>
@@ -11123,7 +11181,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="12" spans="1:702">
+    <row r="12" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3400</v>
       </c>
@@ -11137,7 +11195,7 @@
         <v>86.8</v>
       </c>
       <c r="E12">
-        <v>270.29</v>
+        <v>270.29000000000002</v>
       </c>
       <c r="F12">
         <v>3.83</v>
@@ -11149,7 +11207,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="13" spans="1:702">
+    <row r="13" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3400</v>
       </c>
@@ -11160,7 +11218,7 @@
         <v>12.46</v>
       </c>
       <c r="D13">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E13">
         <v>279.08</v>
@@ -11175,7 +11233,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="14" spans="1:702">
+    <row r="14" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3400</v>
       </c>
@@ -11189,7 +11247,7 @@
         <v>58.9</v>
       </c>
       <c r="E14">
-        <v>290.97</v>
+        <v>290.97000000000003</v>
       </c>
       <c r="F14">
         <v>3.1</v>
@@ -11201,7 +11259,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="15" spans="1:702">
+    <row r="15" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3400</v>
       </c>
@@ -11227,7 +11285,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="16" spans="1:702">
+    <row r="16" spans="1:702" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3400</v>
       </c>
@@ -11253,7 +11311,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3400</v>
       </c>
@@ -11264,7 +11322,7 @@
         <v>5.34</v>
       </c>
       <c r="D17">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E17">
         <v>378.25</v>
@@ -11279,7 +11337,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3400</v>
       </c>
@@ -11299,13 +11357,13 @@
         <v>1.7</v>
       </c>
       <c r="G18">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H18">
         <v>1.68</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3400</v>
       </c>
@@ -11331,7 +11389,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -11357,7 +11415,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3200</v>
       </c>
@@ -11368,22 +11426,22 @@
         <v>15.01</v>
       </c>
       <c r="D21">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E21">
-        <v>259.9</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="F21">
         <v>3.94</v>
       </c>
       <c r="G21">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="H21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3200</v>
       </c>
@@ -11403,13 +11461,13 @@
         <v>3.54</v>
       </c>
       <c r="G22">
-        <v>18.51</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="H22">
         <v>3.56</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3200</v>
       </c>
@@ -11420,7 +11478,7 @@
         <v>11.73</v>
       </c>
       <c r="D23">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E23">
         <v>273.99</v>
@@ -11435,7 +11493,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3200</v>
       </c>
@@ -11443,13 +11501,13 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D24">
         <v>57.3</v>
       </c>
       <c r="E24">
-        <v>285.21</v>
+        <v>285.20999999999998</v>
       </c>
       <c r="F24">
         <v>2.85</v>
@@ -11461,7 +11519,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3200</v>
       </c>
@@ -11469,7 +11527,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D25">
         <v>48.4</v>
@@ -11487,7 +11545,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3200</v>
       </c>
@@ -11501,10 +11559,10 @@
         <v>42.9</v>
       </c>
       <c r="E26">
-        <v>323.65</v>
+        <v>323.64999999999998</v>
       </c>
       <c r="F26">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G26">
         <v>11.3</v>
@@ -11513,7 +11571,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3200</v>
       </c>
@@ -11521,7 +11579,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="D27">
         <v>39.1</v>
@@ -11539,7 +11597,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3200</v>
       </c>
@@ -11565,7 +11623,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3200</v>
       </c>
@@ -11591,7 +11649,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -11617,7 +11675,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -11637,13 +11695,13 @@
         <v>3.61</v>
       </c>
       <c r="G31">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H31">
         <v>3.59</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -11654,10 +11712,10 @@
         <v>12.57</v>
       </c>
       <c r="D32">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E32">
-        <v>258.15</v>
+        <v>258.14999999999998</v>
       </c>
       <c r="F32">
         <v>3.26</v>
@@ -11669,7 +11727,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3000</v>
       </c>
@@ -11695,7 +11753,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -11721,7 +11779,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -11747,7 +11805,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3000</v>
       </c>
@@ -11761,7 +11819,7 @@
         <v>41.1</v>
       </c>
       <c r="E36">
-        <v>316.34</v>
+        <v>316.33999999999997</v>
       </c>
       <c r="F36">
         <v>1.98</v>
@@ -11773,7 +11831,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3000</v>
       </c>
@@ -11784,7 +11842,7 @@
         <v>4.71</v>
       </c>
       <c r="D37">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E37">
         <v>351.17</v>
@@ -11799,7 +11857,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3000</v>
       </c>
@@ -11825,7 +11883,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3000</v>
       </c>
@@ -11851,7 +11909,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2800</v>
       </c>
@@ -11877,7 +11935,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2800</v>
       </c>
@@ -11888,7 +11946,7 @@
         <v>14.52</v>
       </c>
       <c r="D41">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E41">
         <v>248.87</v>
@@ -11903,7 +11961,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2800</v>
       </c>
@@ -11914,7 +11972,7 @@
         <v>13.18</v>
       </c>
       <c r="D42">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E42">
         <v>252.43</v>
@@ -11923,13 +11981,13 @@
         <v>3.34</v>
       </c>
       <c r="G42">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="H42">
         <v>3.33</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2800</v>
       </c>
@@ -11955,7 +12013,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2800</v>
       </c>
@@ -11975,13 +12033,13 @@
         <v>2.71</v>
       </c>
       <c r="G44">
-        <v>16.06</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="H44">
         <v>2.71</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2800</v>
       </c>
@@ -11989,7 +12047,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D45">
         <v>49.2</v>
@@ -12007,7 +12065,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2800</v>
       </c>
@@ -12030,10 +12088,10 @@
         <v>12.35</v>
       </c>
       <c r="H46">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2800</v>
       </c>
@@ -12044,7 +12102,7 @@
         <v>5.87</v>
       </c>
       <c r="D47">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E47">
         <v>304.07</v>
@@ -12059,7 +12117,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2800</v>
       </c>
@@ -12067,10 +12125,10 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D48">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E48">
         <v>342.77</v>
@@ -12085,7 +12143,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2800</v>
       </c>
@@ -12111,7 +12169,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2800</v>
       </c>
@@ -12137,7 +12195,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2600</v>
       </c>
@@ -12163,7 +12221,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2600</v>
       </c>
@@ -12189,7 +12247,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2600</v>
       </c>
@@ -12215,7 +12273,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2600</v>
       </c>
@@ -12235,13 +12293,13 @@
         <v>2.79</v>
       </c>
       <c r="G54">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="H54">
         <v>2.78</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2600</v>
       </c>
@@ -12249,7 +12307,7 @@
         <v>35</v>
       </c>
       <c r="C55">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D55">
         <v>52</v>
@@ -12258,16 +12316,16 @@
         <v>259.56</v>
       </c>
       <c r="F55">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G55">
         <v>15.85</v>
       </c>
       <c r="H55">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2600</v>
       </c>
@@ -12293,7 +12351,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2600</v>
       </c>
@@ -12319,7 +12377,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2600</v>
       </c>
@@ -12330,10 +12388,10 @@
         <v>5.45</v>
       </c>
       <c r="D58">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="E58">
-        <v>294.72</v>
+        <v>294.72000000000003</v>
       </c>
       <c r="F58">
         <v>1.58</v>
@@ -12345,7 +12403,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2600</v>
       </c>
@@ -12371,7 +12429,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2600</v>
       </c>
@@ -12382,22 +12440,22 @@
         <v>2.72</v>
       </c>
       <c r="D60">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E60">
         <v>402.51</v>
       </c>
       <c r="F60">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G60">
         <v>7.01</v>
       </c>
       <c r="H60">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2600</v>
       </c>
@@ -12423,7 +12481,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2400</v>
       </c>
@@ -12449,7 +12507,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2400</v>
       </c>
@@ -12460,7 +12518,7 @@
         <v>12.55</v>
       </c>
       <c r="D63">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E63">
         <v>240.39</v>
@@ -12475,7 +12533,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2400</v>
       </c>
@@ -12501,7 +12559,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2400</v>
       </c>
@@ -12509,7 +12567,7 @@
         <v>40</v>
       </c>
       <c r="C65">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D65">
         <v>55.1</v>
@@ -12524,10 +12582,10 @@
         <v>17.54</v>
       </c>
       <c r="H65">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2400</v>
       </c>
@@ -12535,7 +12593,7 @@
         <v>35</v>
       </c>
       <c r="C66">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D66">
         <v>46.1</v>
@@ -12553,7 +12611,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2400</v>
       </c>
@@ -12579,7 +12637,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2400</v>
       </c>
@@ -12605,7 +12663,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2400</v>
       </c>
@@ -12619,7 +12677,7 @@
         <v>31.2</v>
       </c>
       <c r="E69">
-        <v>286.84</v>
+        <v>286.83999999999997</v>
       </c>
       <c r="F69">
         <v>1.42</v>
@@ -12631,7 +12689,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2400</v>
       </c>
@@ -12657,7 +12715,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2400</v>
       </c>
@@ -12665,10 +12723,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D71">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E71">
         <v>383.05</v>
@@ -12683,7 +12741,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2400</v>
       </c>
@@ -12709,7 +12767,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2200</v>
       </c>
@@ -12735,7 +12793,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2200</v>
       </c>
@@ -12761,7 +12819,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2200</v>
       </c>
@@ -12784,10 +12842,10 @@
         <v>19.18</v>
       </c>
       <c r="H75">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2200</v>
       </c>
@@ -12795,7 +12853,7 @@
         <v>40</v>
       </c>
       <c r="C76">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D76">
         <v>55.7</v>
@@ -12813,7 +12871,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2200</v>
       </c>
@@ -12839,7 +12897,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2200</v>
       </c>
@@ -12865,7 +12923,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2200</v>
       </c>
@@ -12891,12 +12949,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2200</v>
       </c>
       <c r="B80">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C80">
         <v>4.62</v>
@@ -12905,7 +12963,7 @@
         <v>31.4</v>
       </c>
       <c r="E80">
-        <v>278.85</v>
+        <v>278.85000000000002</v>
       </c>
       <c r="F80">
         <v>1.29</v>
@@ -12917,7 +12975,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2200</v>
       </c>
@@ -12934,7 +12992,7 @@
         <v>313.19</v>
       </c>
       <c r="F81">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G81">
         <v>8.19</v>
@@ -12943,7 +13001,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2200</v>
       </c>
@@ -12951,7 +13009,7 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D82">
         <v>17.5</v>
@@ -12969,7 +13027,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2200</v>
       </c>
@@ -12977,13 +13035,13 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D83">
         <v>14.4</v>
       </c>
       <c r="E83">
-        <v>594.0700000000001</v>
+        <v>594.07000000000005</v>
       </c>
       <c r="F83">
         <v>0.71</v>
@@ -12995,7 +13053,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2000</v>
       </c>
@@ -13021,7 +13079,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2000</v>
       </c>
@@ -13032,7 +13090,7 @@
         <v>10.46</v>
       </c>
       <c r="D85">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E85">
         <v>243.98</v>
@@ -13044,10 +13102,10 @@
         <v>21.27</v>
       </c>
       <c r="H85">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2000</v>
       </c>
@@ -13070,10 +13128,10 @@
         <v>18.48</v>
       </c>
       <c r="H86">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2000</v>
       </c>
@@ -13081,7 +13139,7 @@
         <v>40</v>
       </c>
       <c r="C87">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D87">
         <v>56.2</v>
@@ -13099,7 +13157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2000</v>
       </c>
@@ -13125,7 +13183,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2000</v>
       </c>
@@ -13151,7 +13209,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2000</v>
       </c>
@@ -13162,7 +13220,7 @@
         <v>5.23</v>
       </c>
       <c r="D90">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E90">
         <v>258.18</v>
@@ -13177,7 +13235,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2000</v>
       </c>
@@ -13185,13 +13243,13 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D91">
         <v>30.1</v>
       </c>
       <c r="E91">
-        <v>274.15</v>
+        <v>274.14999999999998</v>
       </c>
       <c r="F91">
         <v>1.18</v>
@@ -13200,10 +13258,10 @@
         <v>9.57</v>
       </c>
       <c r="H91">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2000</v>
       </c>
@@ -13223,13 +13281,13 @@
         <v>0.93</v>
       </c>
       <c r="G92">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="H92">
         <v>0.96</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2000</v>
       </c>
@@ -13255,7 +13313,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2000</v>
       </c>
@@ -13275,13 +13333,13 @@
         <v>0.72</v>
       </c>
       <c r="G94">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H94">
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1800</v>
       </c>
@@ -13289,7 +13347,7 @@
         <v>48.9</v>
       </c>
       <c r="C95">
-        <v>9.220000000000001</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="D95">
         <v>100</v>
@@ -13304,10 +13362,10 @@
         <v>20.29</v>
       </c>
       <c r="H95">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1800</v>
       </c>
@@ -13318,7 +13376,7 @@
         <v>9.19</v>
       </c>
       <c r="D96">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E96">
         <v>236.22</v>
@@ -13330,10 +13388,10 @@
         <v>20.09</v>
       </c>
       <c r="H96">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1800</v>
       </c>
@@ -13350,7 +13408,7 @@
         <v>235.43</v>
       </c>
       <c r="F97">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G97">
         <v>18.48</v>
@@ -13359,7 +13417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1800</v>
       </c>
@@ -13385,7 +13443,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1800</v>
       </c>
@@ -13411,7 +13469,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1800</v>
       </c>
@@ -13437,7 +13495,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1800</v>
       </c>
@@ -13451,7 +13509,7 @@
         <v>37</v>
       </c>
       <c r="E101">
-        <v>260.59</v>
+        <v>260.58999999999997</v>
       </c>
       <c r="F101">
         <v>1.23</v>
@@ -13463,7 +13521,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1800</v>
       </c>
@@ -13489,7 +13547,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1800</v>
       </c>
@@ -13515,7 +13573,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1800</v>
       </c>
@@ -13541,7 +13599,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1800</v>
       </c>
@@ -13549,13 +13607,13 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D105">
         <v>13.8</v>
       </c>
       <c r="E105">
-        <v>564.67</v>
+        <v>564.66999999999996</v>
       </c>
       <c r="F105">
         <v>0.51</v>
@@ -13567,7 +13625,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1600</v>
       </c>
@@ -13593,7 +13651,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1600</v>
       </c>
@@ -13604,7 +13662,7 @@
         <v>7.56</v>
       </c>
       <c r="D107">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E107">
         <v>238.85</v>
@@ -13619,18 +13677,18 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1600</v>
       </c>
       <c r="B108">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C108">
         <v>6.67</v>
       </c>
       <c r="D108">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E108">
         <v>237.76</v>
@@ -13645,7 +13703,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1600</v>
       </c>
@@ -13671,7 +13729,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1600</v>
       </c>
@@ -13697,7 +13755,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1600</v>
       </c>
@@ -13705,7 +13763,7 @@
         <v>25</v>
       </c>
       <c r="C111">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D111">
         <v>39.6</v>
@@ -13723,7 +13781,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1600</v>
       </c>
@@ -13734,10 +13792,10 @@
         <v>3.35</v>
       </c>
       <c r="D112">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E112">
-        <v>269.85</v>
+        <v>269.85000000000002</v>
       </c>
       <c r="F112">
         <v>0.91</v>
@@ -13749,7 +13807,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1600</v>
       </c>
@@ -13757,13 +13815,13 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D113">
         <v>25.9</v>
       </c>
       <c r="E113">
-        <v>296.65</v>
+        <v>296.64999999999998</v>
       </c>
       <c r="F113">
         <v>0.75</v>
@@ -13775,7 +13833,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1600</v>
       </c>
@@ -13786,7 +13844,7 @@
         <v>1.68</v>
       </c>
       <c r="D114">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E114">
         <v>354.06</v>
@@ -13798,10 +13856,10 @@
         <v>6.18</v>
       </c>
       <c r="H114">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1600</v>
       </c>
@@ -13827,7 +13885,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1400</v>
       </c>
@@ -13853,12 +13911,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1400</v>
       </c>
       <c r="B117">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C117">
         <v>5.91</v>
@@ -13879,7 +13937,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1400</v>
       </c>
@@ -13905,7 +13963,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1400</v>
       </c>
@@ -13913,7 +13971,7 @@
         <v>30</v>
       </c>
       <c r="C119">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D119">
         <v>54.9</v>
@@ -13931,7 +13989,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1400</v>
       </c>
@@ -13948,7 +14006,7 @@
         <v>251.42</v>
       </c>
       <c r="F120">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G120">
         <v>10.97</v>
@@ -13957,7 +14015,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1400</v>
       </c>
@@ -13983,7 +14041,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1400</v>
       </c>
@@ -13991,7 +14049,7 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D122">
         <v>27.2</v>
@@ -14009,7 +14067,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1400</v>
       </c>
@@ -14020,7 +14078,7 @@
         <v>1.46</v>
       </c>
       <c r="D123">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E123">
         <v>345.94</v>
@@ -14035,7 +14093,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1400</v>
       </c>
@@ -14049,19 +14107,19 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>514.3200000000001</v>
+        <v>514.32000000000005</v>
       </c>
       <c r="F124">
         <v>0.45</v>
       </c>
       <c r="G124">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H124">
         <v>0.38</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1200</v>
       </c>
@@ -14069,7 +14127,7 @@
         <v>35.9</v>
       </c>
       <c r="C125">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="D125">
         <v>100</v>
@@ -14087,7 +14145,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1200</v>
       </c>
@@ -14098,7 +14156,7 @@
         <v>4.45</v>
       </c>
       <c r="D126">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E126">
         <v>261.93</v>
@@ -14113,7 +14171,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1200</v>
       </c>
@@ -14127,7 +14185,7 @@
         <v>63.4</v>
       </c>
       <c r="E127">
-        <v>257.84</v>
+        <v>257.83999999999997</v>
       </c>
       <c r="F127">
         <v>1.05</v>
@@ -14139,7 +14197,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1200</v>
       </c>
@@ -14153,7 +14211,7 @@
         <v>44.5</v>
       </c>
       <c r="E128">
-        <v>256.71</v>
+        <v>256.70999999999998</v>
       </c>
       <c r="F128">
         <v>0.93</v>
@@ -14165,7 +14223,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1200</v>
       </c>
@@ -14173,7 +14231,7 @@
         <v>20</v>
       </c>
       <c r="C129">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D129">
         <v>37</v>
@@ -14191,7 +14249,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1200</v>
       </c>
@@ -14205,7 +14263,7 @@
         <v>28.2</v>
       </c>
       <c r="E130">
-        <v>282.65</v>
+        <v>282.64999999999998</v>
       </c>
       <c r="F130">
         <v>0.35</v>
@@ -14217,7 +14275,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1200</v>
       </c>
@@ -14243,7 +14301,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1200</v>
       </c>

--- a/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
+++ b/ApplyFormulasToGroupOfFiles_DifferentName_v0.1/workspace/result.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="file_0" sheetId="2" r:id="rId2"/>
+    <sheet name="file_0" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="file_1" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="file_2" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="file_3" sheetId="5" state="hidden" r:id="rId5"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ZZ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
